--- a/SeasonModel2015.xlsx
+++ b/SeasonModel2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="414" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="670" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonModel" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,13 +13,68 @@
     <sheet name="ThisYearResult" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="LastYearOutright" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="ThisYearOutright" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Simulate" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="88">
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>relegated</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
+    <t>BKH</t>
+  </si>
+  <si>
+    <t>DIF</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>GIF</t>
+  </si>
+  <si>
+    <t>GIFS</t>
+  </si>
+  <si>
+    <t>HAIF</t>
+  </si>
+  <si>
+    <t>HBK</t>
+  </si>
+  <si>
+    <t>HIF</t>
+  </si>
+  <si>
+    <t>IFE</t>
+  </si>
+  <si>
+    <t>IFKG</t>
+  </si>
+  <si>
+    <t>IFKN</t>
+  </si>
+  <si>
+    <t>KFF</t>
+  </si>
+  <si>
+    <t>MFF</t>
+  </si>
+  <si>
+    <t>ÅFF</t>
+  </si>
+  <si>
+    <t>ÖSK</t>
+  </si>
   <si>
     <t>Home</t>
   </si>
@@ -30,10 +85,13 @@
     <t>Result</t>
   </si>
   <si>
-    <t>HIF</t>
-  </si>
-  <si>
-    <t>DIF</t>
+    <t>Odds_1</t>
+  </si>
+  <si>
+    <t>Odds_X</t>
+  </si>
+  <si>
+    <t>Odds_2</t>
   </si>
   <si>
     <t>1–1</t>
@@ -42,60 +100,24 @@
     <t>BP</t>
   </si>
   <si>
-    <t>KFF</t>
-  </si>
-  <si>
     <t>1–2</t>
   </si>
   <si>
     <t>MAIF</t>
   </si>
   <si>
-    <t>GIF</t>
-  </si>
-  <si>
     <t>2–2</t>
   </si>
   <si>
-    <t>HBK</t>
-  </si>
-  <si>
-    <t>ÖSK</t>
-  </si>
-  <si>
-    <t>MFF</t>
-  </si>
-  <si>
-    <t>FFF</t>
-  </si>
-  <si>
     <t>3–0</t>
   </si>
   <si>
-    <t>ÅFF</t>
-  </si>
-  <si>
-    <t>IFE</t>
-  </si>
-  <si>
     <t>2–1</t>
   </si>
   <si>
-    <t>BKH</t>
-  </si>
-  <si>
-    <t>IFKN</t>
-  </si>
-  <si>
     <t>2–0</t>
   </si>
   <si>
-    <t>AIK</t>
-  </si>
-  <si>
-    <t>IFKG</t>
-  </si>
-  <si>
     <t>0–2</t>
   </si>
   <si>
@@ -171,12 +193,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>HAIF</t>
-  </si>
-  <si>
-    <t>GIFS</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -225,61 +241,40 @@
     <t>Gammalt Odds</t>
   </si>
   <si>
-    <t>1.86</t>
-  </si>
-  <si>
     <t>2.02</t>
   </si>
   <si>
-    <t>6.11</t>
-  </si>
-  <si>
     <t>7.22</t>
   </si>
   <si>
+    <t>8.33</t>
+  </si>
+  <si>
     <t>14.12</t>
   </si>
   <si>
-    <t>8.33</t>
-  </si>
-  <si>
-    <t>11.76</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
     <t>21.18</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
+    <t>38.75</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>51.25</t>
+  </si>
+  <si>
     <t>63.75</t>
   </si>
   <si>
-    <t>38.75</t>
-  </si>
-  <si>
-    <t>42.5</t>
-  </si>
-  <si>
-    <t>51.25</t>
-  </si>
-  <si>
-    <t>118.33</t>
-  </si>
-  <si>
     <t>70.0</t>
   </si>
   <si>
-    <t>502.5</t>
-  </si>
-  <si>
     <t>440.0</t>
-  </si>
-  <si>
-    <t>1002.5</t>
   </si>
   <si>
     <t>627.5</t>
@@ -295,10 +290,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -319,6 +315,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,10 +373,22 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -385,17 +407,256 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>27.5254610514726</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2564.10256410256</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>657.894736842105</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>62.8140703517588</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>327.868852459016</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>132.100396301189</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="e">
+        <f aca="false">{nan}</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.18746582084655</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4.52079566003617</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="e">
+        <f aca="false">{nan}</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4.2578557438474</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>56.5610859728507</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1010.10101010101</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="e">
+        <f aca="false">{nan}</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2.02028364782415</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>296.73590504451</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>149.925037481259</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>12.2669283611384</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.96836765144733</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="e">
+        <f aca="false">{nan}</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1136.36363636364</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>53.7056928034372</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>16.1655350792111</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1.45363627113224</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="e">
+        <f aca="false">{nan}</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2.67094017094017</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>9.49307005885703</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -411,10 +672,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="B2:B17 E5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A220" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I228" activeCellId="0" sqref="I228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -422,128 +683,230 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29081632653061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.87755102040816"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.71428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.11734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.04081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.11734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>11.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4.95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,186 +914,339 @@
         <v>4</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>9.25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>5</v>
+      <c r="D24" s="2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,164 +1254,299 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>5</v>
+      <c r="D35" s="2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>4.05</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>9.25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>3.45</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,164 +1554,299 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>8.25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="C51" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>3.95</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,241 +1854,439 @@
         <v>4</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>10.25</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>5</v>
+      <c r="D62" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>5.75</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,263 +2294,479 @@
         <v>4</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B86" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F86" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>4.85</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>5.75</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B97" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>5</v>
+      <c r="D97" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="C101" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C102" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,175 +2774,319 @@
         <v>4</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C110" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E111" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>11</v>
+      <c r="F111" s="2" t="n">
+        <v>13.25</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,153 +3094,279 @@
         <v>4</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C122" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C130" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,263 +3374,479 @@
         <v>4</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B146" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="0" t="s">
-        <v>5</v>
+      <c r="D146" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C147" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,186 +3854,339 @@
         <v>4</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D160" s="3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E160" s="3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F160" s="3" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>4.05</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C167" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C172" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E172" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,54 +4194,99 @@
         <v>4</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,142 +4294,259 @@
         <v>4</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D183" s="3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F183" s="3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D188" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B188" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>45</v>
+      <c r="E188" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>5.75</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,186 +4554,339 @@
         <v>4</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>7.25</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F204" s="2" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F206" s="2" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F207" s="2" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F208" s="2" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F209" s="2" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F210" s="2" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,142 +4894,259 @@
         <v>4</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F211" s="2" t="n">
+        <v>7.25</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B212" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E212" s="3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F212" s="3" t="n">
         <v>6</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F213" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F214" s="2" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F215" s="2" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F216" s="2" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F217" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F218" s="2" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F219" s="2" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F220" s="2" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F221" s="2" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F222" s="2" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E223" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B223" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>42</v>
+      <c r="F223" s="2" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,120 +5154,219 @@
         <v>4</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F224" s="2" t="n">
+        <v>3.85</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B225" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F225" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F226" s="2" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F229" s="2" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F230" s="2" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F231" s="2" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F232" s="2" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F233" s="2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F234" s="2" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,76 +5374,139 @@
         <v>4</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F235" s="2" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F236" s="2" t="n">
+        <v>3.45</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B237" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C237" s="0" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F237" s="2" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F238" s="2" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F239" s="2" t="n">
+        <v>8.25</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C240" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D240" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F240" s="2" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F241" s="2" t="n">
+        <v>2.65</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +5528,7 @@
   <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B17 A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3108,2653 +5541,2653 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="C94" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C108" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="C127" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C147" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B181" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C181" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B192" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="C192" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B205" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C205" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B240" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C240" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5775,8 +8208,8 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B2:B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5788,50 +8221,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,87 +8272,87 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5941,7 +8374,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="B2:B17 E1"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5954,79 +8387,79 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6034,7 +8467,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>79</v>
@@ -6042,10 +8475,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>80</v>
@@ -6053,10 +8486,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>81</v>
@@ -6064,21 +8497,21 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>83</v>
@@ -6086,57 +8519,57 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6148,4 +8581,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>